--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.28.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.28.xlsx
@@ -49,30 +49,30 @@
     <t>גב' רונן</t>
   </si>
   <si>
+    <t>יעל.</t>
+  </si>
+  <si>
+    <t>יעל נעים מאוד.</t>
+  </si>
+  <si>
+    <t>(לא נשמע).</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>כן, יואב.</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
-    <t>יעל.</t>
-  </si>
-  <si>
-    <t>יעל נעים מאוד.</t>
-  </si>
-  <si>
-    <t>(לא נשמע).</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>כן, יואב.</t>
+    <t>agree</t>
   </si>
   <si>
     <t>כן.</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>הוא הגיע אתך.</t>
   </si>
   <si>
@@ -109,6 +109,9 @@
     <t>?med</t>
   </si>
   <si>
+    <t>r/o</t>
+  </si>
+  <si>
     <t>אם זה לא לאחרונה?</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
   </si>
   <si>
     <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
-  </si>
-  <si>
-    <t>r/o</t>
   </si>
   <si>
     <t xml:space="preserve">(לא נשמע) זאת אומרת זה משהו שהוא בוודאות במאה אחוז הוא נקבע זהו. </t>
@@ -779,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -815,10 +815,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -843,10 +843,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -877,7 +877,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -975,7 +975,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -1011,10 +1011,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
         <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1123,13 +1123,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1182,7 +1182,7 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>6</v>
@@ -1196,7 +1196,7 @@
         <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1210,10 +1210,10 @@
         <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1238,7 +1238,7 @@
         <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1266,7 +1266,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
@@ -1378,7 +1378,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1434,7 +1434,7 @@
         <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1451,7 +1451,7 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1504,7 +1504,7 @@
         <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -1518,7 +1518,7 @@
         <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -1560,7 +1560,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
         <v>14</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -1602,10 +1602,10 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -1616,7 +1616,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -1644,10 +1644,10 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1658,10 +1658,10 @@
         <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -1672,10 +1672,10 @@
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1686,7 +1686,7 @@
         <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
         <v>20</v>
@@ -1728,7 +1728,7 @@
         <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1742,7 +1742,7 @@
         <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1798,7 +1798,7 @@
         <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1871,7 +1871,7 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1896,7 +1896,7 @@
         <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -1913,7 +1913,7 @@
         <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -1924,10 +1924,10 @@
         <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -1952,10 +1952,10 @@
         <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -1963,10 +1963,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
         <v>14</v>
-      </c>
-      <c r="B89" t="s">
-        <v>15</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -1980,7 +1980,7 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
         <v>20</v>
@@ -2008,7 +2008,7 @@
         <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -2036,7 +2036,7 @@
         <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2050,7 +2050,7 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2078,7 +2078,7 @@
         <v>111</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -2092,7 +2092,7 @@
         <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2120,7 +2120,7 @@
         <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
@@ -2134,7 +2134,7 @@
         <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -2148,7 +2148,7 @@
         <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -2162,10 +2162,10 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2176,7 +2176,7 @@
         <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -2249,7 +2249,7 @@
         <v>5</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
